--- a/MedicalLink/Templates/BC_ThuocTheoNguoiKeNhaThuoc.xlsx
+++ b/MedicalLink/Templates/BC_ThuocTheoNguoiKeNhaThuoc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HongNhat\Desktop\MedicalLink.git\trunk\MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="CNNK" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNNK!$A$1:$I$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNNK!$A$1:$I$13</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -62,9 +62,6 @@
     <t>BÁO CÁO THUỐC THEO NGƯỜI KÊ</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>&amp;=[DATA].LST_MECICINESTORENAME</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>&amp;=[DATA1].NGUOICHIDINH</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -304,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -320,7 +320,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -658,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -677,198 +676,188 @@
     <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" ht="25.5">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75">
+      <c r="C2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
-    <row r="2" spans="1:12" ht="25.5">
-      <c r="D2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75">
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="1:12" ht="15.75">
+      <c r="D3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
-      <c r="D4" s="16" t="s">
+    <row r="6" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="6" customFormat="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5">
+        <v>7</v>
+      </c>
+      <c r="H8" s="5">
+        <v>8</v>
+      </c>
+      <c r="I8" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="7" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="4">
+        <f>SUM(D9:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2">
+        <f>SUM(F9:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="F12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="6" customFormat="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5">
-        <v>5</v>
-      </c>
-      <c r="F9" s="5">
-        <v>6</v>
-      </c>
-      <c r="G9" s="5">
-        <v>7</v>
-      </c>
-      <c r="H9" s="5">
-        <v>8</v>
-      </c>
-      <c r="I9" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A11" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="4">
-        <f>SUM(D10:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2">
-        <f>SUM(F10:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="F13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/BC_ThuocTheoNguoiKeNhaThuoc.xlsx
+++ b/MedicalLink/Templates/BC_ThuocTheoNguoiKeNhaThuoc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\bin\Debug\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -110,7 +110,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -122,25 +122,28 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Times Ne"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times Ne"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
-      <color indexed="8"/>
-      <name val="Times Ne"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -151,16 +154,12 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -306,74 +305,74 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -660,187 +659,187 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="5" customWidth="1"/>
+    <col min="6" max="7" width="19.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="8"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75">
-      <c r="C2" s="17" t="s">
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
-      <c r="D3" s="15" t="s">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="6" customFormat="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="21"/>
+    <row r="7" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>1</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="17">
         <v>2</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="17">
         <v>3</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="17">
         <v>4</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="17">
         <v>5</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="17">
         <v>6</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="17">
         <v>7</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="17">
         <v>8</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="17">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:12" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="4">
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24">
         <f>SUM(D9:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2">
+      <c r="E10" s="25"/>
+      <c r="F10" s="26">
         <f>SUM(F9:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
     </row>
-    <row r="12" spans="1:12">
-      <c r="F12" s="16" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
